--- a/Bicycle-Rental/asset/History.xlsx
+++ b/Bicycle-Rental/asset/History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C8B26-0436-4E45-8ED5-4078FD710728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782EEC33-9719-4B0D-BC89-10B741CDAD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>loaixe</t>
+  </si>
+  <si>
+    <t>thanhtoan</t>
   </si>
 </sst>
 </file>
@@ -360,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,16 +379,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bicycle-Rental/asset/History.xlsx
+++ b/Bicycle-Rental/asset/History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08186AD6-0577-4AC6-BCFF-1F54B16C75EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C92B412-E0F3-4D29-A541-FFEF4EA8477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>username</t>
   </si>
@@ -49,16 +49,82 @@
   </si>
   <si>
     <t>tenxe</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Trek Bike 4500</t>
+  </si>
+  <si>
+    <t>Mountain Bike</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Pinarello F12 105 R7000</t>
+  </si>
+  <si>
+    <t>Road Bike</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>LIV 2022 AVAIL AR 2</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Youth LIV Enchant 24 Disc 2022 </t>
+  </si>
+  <si>
+    <t>1/11/2023</t>
+  </si>
+  <si>
+    <t>1/11/2024</t>
+  </si>
+  <si>
+    <t>1/11/2025</t>
+  </si>
+  <si>
+    <t>1/11/2026</t>
+  </si>
+  <si>
+    <t>1/13/2023</t>
+  </si>
+  <si>
+    <t>1/15/2023</t>
+  </si>
+  <si>
+    <t>1/10/2023</t>
+  </si>
+  <si>
+    <t>1/5/2023</t>
+  </si>
+  <si>
+    <t>1/6/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,15 +435,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -404,7 +474,112 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bicycle-Rental/asset/History.xlsx
+++ b/Bicycle-Rental/asset/History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C92B412-E0F3-4D29-A541-FFEF4EA8477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C7AED0-9725-431E-B119-3862CCF62DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -85,15 +85,6 @@
   </si>
   <si>
     <t>1/11/2023</t>
-  </si>
-  <si>
-    <t>1/11/2024</t>
-  </si>
-  <si>
-    <t>1/11/2025</t>
-  </si>
-  <si>
-    <t>1/11/2026</t>
   </si>
   <si>
     <t>1/13/2023</t>
@@ -150,10 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -438,13 +428,14 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,10 +476,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -510,14 +501,14 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -536,14 +527,14 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -562,14 +553,14 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -581,5 +572,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bicycle-Rental/asset/History.xlsx
+++ b/Bicycle-Rental/asset/History.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C92B412-E0F3-4D29-A541-FFEF4EA8477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436B799-F5A4-4EA7-A88D-A16F0E0B9629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,11 +150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,44 +437,47 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -493,15 +495,15 @@
       <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -510,7 +512,7 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -519,15 +521,15 @@
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -536,7 +538,7 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -545,15 +547,15 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -562,16 +564,16 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -581,5 +583,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>